--- a/ValueSet-animal-class.xlsx
+++ b/ValueSet-animal-class.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T09:09:18+00:00</t>
+    <t>2024-04-10T09:46:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-animal-class.xlsx
+++ b/ValueSet-animal-class.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T09:46:51+00:00</t>
+    <t>2024-04-10T12:05:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-animal-class.xlsx
+++ b/ValueSet-animal-class.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:05:41+00:00</t>
+    <t>2024-04-10T12:38:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-animal-class.xlsx
+++ b/ValueSet-animal-class.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:38:22+00:00</t>
+    <t>2024-04-10T12:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-animal-class.xlsx
+++ b/ValueSet-animal-class.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:47:47+00:00</t>
+    <t>2024-04-10T14:10:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-animal-class.xlsx
+++ b/ValueSet-animal-class.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Animal Class" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Animal Class Cod" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:10:05+00:00</t>
+    <t>2024-04-10T14:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
